--- a/biology/Botanique/Jujubier_sauvage/Jujubier_sauvage.xlsx
+++ b/biology/Botanique/Jujubier_sauvage/Jujubier_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ziziphus lotus
 Le jujubier sauvage, jujubier de Berbérie, jujubier lotus, ou également jujubier des Lotophages (Ziziphus lotus parfois orthographié « Zizyphus lotus »), est une espèce de plantes à fleurs de la famille des Rhamnaceae. Son nom est donné en référence à l'antique peuple imaginaire des Lotophages (mangeurs de lotos) décrit par Homère, Polybe et Hérodote, qui habitait une île de la côte est tunisienne (on désigne souvent Djerba, ce pourrait être aussi une île du golfe de Gabès), endroit où le lotos est le meilleur d'après Théophraste. En 1790, le botaniste René Desfontaines (à qui la plante doit son nom botanique) démontra sur un faisceau d'indices que le lotos ancien était cette unique jujube méditerranéenne, comme on le supposait depuis longtemps. L'intérêt pour ce peuple avait été suscité par un bref passage de l’Odyssée dans lequel Homère décrit les Lotophages vivant heureux en consommant ce fruit qui avait le pouvoir de faire oublier jusqu'à l'amour de leur patrie aux marins d'Ulysse.
